--- a/Scripts/parameters_output_27448.xlsx
+++ b/Scripts/parameters_output_27448.xlsx
@@ -652,16 +652,16 @@
         <v>18</v>
       </c>
       <c r="G7">
-        <v>4238070.507103032</v>
+        <v>1665534.092221494</v>
       </c>
       <c r="H7">
-        <v>49616.99565792706</v>
+        <v>95501.94938719799</v>
       </c>
       <c r="I7">
-        <v>1.33</v>
+        <v>53.98</v>
       </c>
       <c r="J7">
-        <v>56232.7519672035</v>
+        <v>899109.9642582342</v>
       </c>
     </row>
     <row r="8" spans="1:10">
